--- a/storage/app/xlsx/seed_cidades_ro.xlsx
+++ b/storage/app/xlsx/seed_cidades_ro.xlsx
@@ -23,7 +23,7 @@
     <t>ALTA-FLORENSE</t>
   </si>
   <si>
-    <t>7414e215-3142-4fb7-9205-dc4198930e63</t>
+    <t>18bb0c20-ea49-4592-a80c-80e01cc1645f</t>
   </si>
   <si>
     <t>ARIQUEMES</t>

--- a/storage/app/xlsx/seed_cidades_ro.xlsx
+++ b/storage/app/xlsx/seed_cidades_ro.xlsx
@@ -23,7 +23,7 @@
     <t>ALTA-FLORENSE</t>
   </si>
   <si>
-    <t>18bb0c20-ea49-4592-a80c-80e01cc1645f</t>
+    <t>ef2e0d9d-499d-4371-9347-e6c1204c2648</t>
   </si>
   <si>
     <t>ARIQUEMES</t>

--- a/storage/app/xlsx/seed_cidades_ro.xlsx
+++ b/storage/app/xlsx/seed_cidades_ro.xlsx
@@ -23,7 +23,7 @@
     <t>ALTA-FLORENSE</t>
   </si>
   <si>
-    <t>ef2e0d9d-499d-4371-9347-e6c1204c2648</t>
+    <t>b1fb82f9-e615-46be-a137-ec5044075181</t>
   </si>
   <si>
     <t>ARIQUEMES</t>

--- a/storage/app/xlsx/seed_cidades_ro.xlsx
+++ b/storage/app/xlsx/seed_cidades_ro.xlsx
@@ -23,7 +23,7 @@
     <t>ALTA-FLORENSE</t>
   </si>
   <si>
-    <t>b1fb82f9-e615-46be-a137-ec5044075181</t>
+    <t>1fd050e3-a723-4680-bc5e-38a1c3dacc20</t>
   </si>
   <si>
     <t>ARIQUEMES</t>

--- a/storage/app/xlsx/seed_cidades_ro.xlsx
+++ b/storage/app/xlsx/seed_cidades_ro.xlsx
@@ -23,7 +23,7 @@
     <t>ALTA-FLORENSE</t>
   </si>
   <si>
-    <t>1fd050e3-a723-4680-bc5e-38a1c3dacc20</t>
+    <t>d0b96725-ffd0-48cc-94bb-d518642c6d80</t>
   </si>
   <si>
     <t>ARIQUEMES</t>

--- a/storage/app/xlsx/seed_cidades_ro.xlsx
+++ b/storage/app/xlsx/seed_cidades_ro.xlsx
@@ -23,7 +23,7 @@
     <t>ALTA-FLORENSE</t>
   </si>
   <si>
-    <t>d0b96725-ffd0-48cc-94bb-d518642c6d80</t>
+    <t>1b4e5cc6-b1ae-4237-8fd2-3ed6e4609a73</t>
   </si>
   <si>
     <t>ARIQUEMES</t>
